--- a/DATA_goal/Junction_Flooding_370.xlsx
+++ b/DATA_goal/Junction_Flooding_370.xlsx
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.25</v>
+        <v>22.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.55</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.3</v>
+        <v>22.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.85</v>
+        <v>118.5</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.78</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.83</v>
+        <v>28.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.59</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.15</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.71</v>
+        <v>107.12</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.1</v>
+        <v>21.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.6</v>
+        <v>25.97</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>3.85</v>
+        <v>38.49</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_370.xlsx
+++ b/DATA_goal/Junction_Flooding_370.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45051.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.23</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.99</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.49</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.55</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.71</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.99</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.75</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.03</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.87</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.68</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.27</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.09</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.66</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.4</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.5</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.78</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.63</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.43</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.66</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.15</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.96</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.74</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.37</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.24</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.57</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.43</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.86</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45051.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>23.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.79</v>
+        <v>16.639</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.81</v>
+        <v>50.025</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.08</v>
+        <v>40.321</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.2</v>
+        <v>18.065</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.33</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.59</v>
+        <v>27.923</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.01</v>
+        <v>12.197</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.85</v>
+        <v>17.981</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.24</v>
+        <v>20.011</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.09</v>
+        <v>21.099</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.15</v>
+        <v>5.797</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.52</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.4</v>
+        <v>25.524</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.77</v>
+        <v>15.422</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.534</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.266</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.12</v>
+        <v>267.37</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.05</v>
+        <v>50.451</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.94</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.7</v>
+        <v>33.61</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.19</v>
+        <v>17.523</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.4</v>
+        <v>3.074</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.53</v>
+        <v>33.518</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.13</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.66</v>
+        <v>13.126</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.58</v>
+        <v>15.495</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>21.036</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.97</v>
+        <v>62.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.67</v>
+        <v>9.242000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.68</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45051.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.68</v>
+        <v>9.609</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.62</v>
+        <v>6.767</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.32</v>
+        <v>20.844</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.12</v>
+        <v>16.495</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.76</v>
+        <v>7.488</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.74</v>
+        <v>33.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.61</v>
+        <v>11.635</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.03</v>
+        <v>5.023</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.45</v>
+        <v>7.262</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.29</v>
+        <v>8.343</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.72</v>
+        <v>8.792999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.79</v>
+        <v>2.419</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.01</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.11</v>
+        <v>10.594</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.88</v>
+        <v>6.585</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.955</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.627</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.49</v>
+        <v>107.148</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.6</v>
+        <v>21.188</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.78</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.48</v>
+        <v>13.965</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.83</v>
+        <v>7.234</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.447</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.24</v>
+        <v>15.626</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.45</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.35</v>
+        <v>5.549</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.72</v>
+        <v>6.541</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.51</v>
+        <v>8.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.74</v>
+        <v>30.676</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.38</v>
+        <v>3.773</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.47</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45051.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.75</v>
+        <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.97</v>
+        <v>8.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.25</v>
+        <v>25.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.6</v>
+        <v>20.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.06</v>
+        <v>9.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.35</v>
+        <v>35.3</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.45</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.53</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.83</v>
+        <v>8.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.48</v>
+        <v>10.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.8</v>
+        <v>10.62</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.18</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>27.01</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.38</v>
+        <v>25.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.08</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.03</v>
+        <v>16.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.1</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.48</v>
+        <v>1.52</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.03</v>
+        <v>16.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.84</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.77</v>
+        <v>6.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.05</v>
+        <v>7.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.64</v>
+        <v>10.55</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.5</v>
+        <v>32.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.03</v>
+        <v>4.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.74</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_370.xlsx
+++ b/DATA_goal/Junction_Flooding_370.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45051.50694444445</v>
+        <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.854</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.494</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.735</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.762</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.097</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.381</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.784</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.197</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.826</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.635</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.329</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.955</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.981</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.407</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.155</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.858</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.133</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.475</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.412</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.452</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.298</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.285</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.349</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.115</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.106</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.918</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.036</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.313</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.905</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.108</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.317</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45051.51388888889</v>
+        <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.06</v>
+        <v>9.385</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.639</v>
+        <v>6.792</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.999</v>
+        <v>1.523</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.025</v>
+        <v>20.807</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.321</v>
+        <v>16.077</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.065</v>
+        <v>7.199</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>68.01000000000001</v>
+        <v>28.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.923</v>
+        <v>11.587</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.197</v>
+        <v>5.006</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.981</v>
+        <v>6.851</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.011</v>
+        <v>8.239000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.099</v>
+        <v>9.093</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.797</v>
+        <v>2.152</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.046</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.524</v>
+        <v>10.403</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.422</v>
+        <v>6.771</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.534</v>
+        <v>1.192</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.266</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.37</v>
+        <v>107.122</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.451</v>
+        <v>21.045</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.657</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.61</v>
+        <v>13.702</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.523</v>
+        <v>7.192</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.074</v>
+        <v>1.396</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.518</v>
+        <v>14.528</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.713</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.126</v>
+        <v>5.657</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.495</v>
+        <v>6.582</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.036</v>
+        <v>8.782</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>62.13</v>
+        <v>25.973</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.242000000000001</v>
+        <v>3.674</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.825</v>
+        <v>8.677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45051.52083333334</v>
+        <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.609</v>
+        <v>3.676</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.767</v>
+        <v>2.619</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.877</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.844</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.495</v>
+        <v>6.118</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.488</v>
+        <v>2.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.32</v>
+        <v>14.737</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.635</v>
+        <v>4.61</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.023</v>
+        <v>2.029</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.262</v>
+        <v>2.454</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.343</v>
+        <v>3.286</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.792999999999999</v>
+        <v>3.721</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.419</v>
+        <v>0.785</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.519</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.594</v>
+        <v>4.111</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.585</v>
+        <v>2.881</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.955</v>
+        <v>0.784</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.627</v>
+        <v>0.264</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>107.148</v>
+        <v>38.486</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.188</v>
+        <v>8.605</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.941</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.965</v>
+        <v>5.483</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.234</v>
+        <v>2.827</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.447</v>
+        <v>0.648</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.626</v>
+        <v>7.235</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.131</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.549</v>
+        <v>2.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.541</v>
+        <v>2.719</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.76</v>
+        <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.676</v>
+        <v>13.735</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.773</v>
+        <v>1.384</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45051.52777777778</v>
+        <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.53</v>
+        <v>2.749</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.33</v>
+        <v>1.971</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.05</v>
+        <v>6.249</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.14</v>
+        <v>4.595</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.01</v>
+        <v>2.056</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.3</v>
+        <v>10.351</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.96</v>
+        <v>3.449</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.1</v>
+        <v>1.532</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.94</v>
+        <v>1.825</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.04</v>
+        <v>2.476</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.62</v>
+        <v>2.8</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>0.581</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>2.256</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.75</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.76</v>
+        <v>2.171</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.598</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.182</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.01</v>
+        <v>27.007</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.22</v>
+        <v>6.378</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>2.082</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.78</v>
+        <v>4.033</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>2.103</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.52</v>
+        <v>0.479</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.98</v>
+        <v>5.033</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>1.839</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.59</v>
+        <v>1.766</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.76</v>
+        <v>2.046</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.55</v>
+        <v>2.636</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.522</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>32.07</v>
+        <v>9.500999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.61</v>
+        <v>1.035</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+        <v>2.604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_370.xlsx
+++ b/DATA_goal/Junction_Flooding_370.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45051.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.232</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.988</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.382</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.493</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.551</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.711</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.993</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.747</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.033</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.872</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.682</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.968</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.214</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.091</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.662</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.404</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.071</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.497</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.775</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.635</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.429</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.663</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.148</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.965</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.744</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.372</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.242</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.571</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.474</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.428</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.858</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.544</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45051.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.385</v>
+        <v>23.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.792</v>
+        <v>16.639</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.523</v>
+        <v>1.999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.807</v>
+        <v>50.025</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.077</v>
+        <v>40.321</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.199</v>
+        <v>18.065</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.33</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.587</v>
+        <v>27.923</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.006</v>
+        <v>12.197</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.851</v>
+        <v>17.981</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.239000000000001</v>
+        <v>20.011</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.093</v>
+        <v>21.099</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.152</v>
+        <v>5.797</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.519</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.403</v>
+        <v>25.524</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.771</v>
+        <v>15.422</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.192</v>
+        <v>1.534</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5580000000000001</v>
+        <v>1.266</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.122</v>
+        <v>267.37</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.045</v>
+        <v>50.451</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.941</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.702</v>
+        <v>33.61</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.192</v>
+        <v>17.523</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.396</v>
+        <v>3.074</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.528</v>
+        <v>33.518</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.131</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.657</v>
+        <v>13.126</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.582</v>
+        <v>15.495</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.782</v>
+        <v>21.036</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.101</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.973</v>
+        <v>62.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.674</v>
+        <v>9.242000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.677</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45051.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.676</v>
+        <v>9.609</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.619</v>
+        <v>6.767</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.877</v>
+        <v>1.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.321999999999999</v>
+        <v>20.844</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.118</v>
+        <v>16.495</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.76</v>
+        <v>7.488</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.737</v>
+        <v>33.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.61</v>
+        <v>11.635</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.029</v>
+        <v>5.023</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.454</v>
+        <v>7.262</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.286</v>
+        <v>8.343</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.721</v>
+        <v>8.792999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.785</v>
+        <v>2.419</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.008</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.111</v>
+        <v>10.594</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.881</v>
+        <v>6.585</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.955</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.264</v>
+        <v>0.627</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.486</v>
+        <v>107.148</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.605</v>
+        <v>21.188</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.776</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.483</v>
+        <v>13.965</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.827</v>
+        <v>7.234</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.648</v>
+        <v>1.447</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.235</v>
+        <v>15.626</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.452</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.35</v>
+        <v>5.549</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.719</v>
+        <v>6.541</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.51</v>
+        <v>8.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.708</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.735</v>
+        <v>30.676</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.384</v>
+        <v>3.773</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.473</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45051.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.749</v>
+        <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.971</v>
+        <v>8.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.249</v>
+        <v>25.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.595</v>
+        <v>20.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.056</v>
+        <v>9.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.351</v>
+        <v>35.3</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.449</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.532</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.825</v>
+        <v>8.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.476</v>
+        <v>10.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.8</v>
+        <v>10.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.581</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.256</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.05</v>
+        <v>12.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.171</v>
+        <v>7.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.598</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.182</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.007</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.378</v>
+        <v>25.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.082</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.033</v>
+        <v>16.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.103</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.479</v>
+        <v>1.52</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.033</v>
+        <v>16.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.839</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.766</v>
+        <v>6.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.046</v>
+        <v>7.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.636</v>
+        <v>10.55</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.522</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.500999999999999</v>
+        <v>32.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.035</v>
+        <v>4.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.604</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.74</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
